--- a/TradeStudies.xlsx
+++ b/TradeStudies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\KinetX\Interweaving Sims\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\KinetX\Interweaving Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58092AB5-246B-4841-8248-BB9098C98C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D294DFA-ABC7-4F4B-A5A7-C543874A531F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3FF2818D-7A6A-4805-BC85-03C92154DC29}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <r>
       <t>Size (</t>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B460B58-A14D-41E4-A38F-E2CE4D18D5F5}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,8 +486,8 @@
     <col min="2" max="14" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -503,8 +503,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -520,8 +523,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -541,8 +547,12 @@
         <f>ROUNDUP(1000/(1742.27742411934*10^-3),0)</f>
         <v>574</v>
       </c>
+      <c r="G4">
+        <f>ROUNDUP(1000/(722.194207590396*10^-3),0)</f>
+        <v>1385</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -562,8 +572,12 @@
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
+      <c r="G5">
+        <f t="shared" ref="G5" si="1">ROUNDUP(G4/4,0)</f>
+        <v>347</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -572,19 +586,23 @@
         <v>132</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:E6" si="1">ROUNDUP(C4/9,0)</f>
+        <f t="shared" ref="C6:E6" si="2">ROUNDUP(C4/9,0)</f>
         <v>101</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
+      <c r="G6">
+        <f t="shared" ref="G6" si="3">ROUNDUP(G4/9,0)</f>
+        <v>154</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -604,8 +622,12 @@
         <f>((4*60)+42)*E5/3600</f>
         <v>11.28</v>
       </c>
+      <c r="G7">
+        <f>ROUNDUP(((2*60)+3)*G5/3600,2)</f>
+        <v>11.86</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -625,10 +647,14 @@
         <f>ROUNDUP(((4*60)+42)*E6/3600,2)</f>
         <v>5.0199999999999996</v>
       </c>
+      <c r="G8">
+        <f>ROUNDUP(((2*60)+3)*G6/3600,2)</f>
+        <v>5.27</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
